--- a/biology/Zoologie/Cyclopyge_roscius/Cyclopyge_roscius.xlsx
+++ b/biology/Zoologie/Cyclopyge_roscius/Cyclopyge_roscius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclopyge roscius est une espèce néotropicale de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini. C'est l'unique représentante du genre monotypique Cyclopyge.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cyclopyge roscius a été décrite par l'entomologiste allemand Carl Heinrich Hopffer en 1874, sous le nom initial de Pyrrhopyge roscius[1]. Un autre synonyme est Olafia roscius.
-Le genre Cyclopyge a quant à lui été décrit par Mielke en 2002[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cyclopyge roscius a été décrite par l'entomologiste allemand Carl Heinrich Hopffer en 1874, sous le nom initial de Pyrrhopyge roscius. Un autre synonyme est Olafia roscius.
+Le genre Cyclopyge a quant à lui été décrit par Mielke en 2002.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cyclopyge roscius roscius — présent en Argentine et au Brésil
 Cyclopyge roscius flavomaculata (Bell, 1937) — présent au Brésil
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclopyge roscius est présente en Argentine et au Brésil[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclopyge roscius est présente en Argentine et au Brésil.
 </t>
         </is>
       </c>
@@ -632,7 +652,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.[réf. nécessaire]
 </t>
